--- a/SMS_statistical_analysis/results/results.xlsx
+++ b/SMS_statistical_analysis/results/results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>Maximum Value</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>number of outliers</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -490,11 +495,14 @@
       <c r="G2" t="n">
         <v>124.9</v>
       </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>time step 1</t>
+          <t>Time step 1</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -514,12 +522,15 @@
       </c>
       <c r="G3" t="n">
         <v>127.15</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>time step 10</t>
+          <t>Time step 10</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -539,12 +550,15 @@
       </c>
       <c r="G4" t="n">
         <v>124.8125</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>time step 100</t>
+          <t>Time step 100</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -564,6 +578,9 @@
       </c>
       <c r="G5" t="n">
         <v>116.6375</v>
+      </c>
+      <c r="H5" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
